--- a/forecast_summary_B083RW9TJF.xlsx
+++ b/forecast_summary_B083RW9TJF.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="n">
         <v>55.838592575108</v>
       </c>
       <c r="D2" t="n">
-        <v>94.00150215699921</v>
+        <v>91.72276436005113</v>
       </c>
       <c r="E2" t="n">
         <v>35</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
         <v>96.46089874516899</v>
       </c>
       <c r="D3" t="n">
-        <v>137.6101663695845</v>
+        <v>135.0514256054417</v>
       </c>
       <c r="E3" t="n">
         <v>40</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>116.3843585178365</v>
       </c>
       <c r="D4" t="n">
-        <v>155.0240708905098</v>
+        <v>152.5204448206514</v>
       </c>
       <c r="E4" t="n">
         <v>38</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>102.4014720837832</v>
       </c>
       <c r="D5" t="n">
-        <v>137.9811704271282</v>
+        <v>142.2354141653486</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>73.86705219317793</v>
       </c>
       <c r="D6" t="n">
-        <v>111.7808483796476</v>
+        <v>114.3493968594281</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>60.59212124609922</v>
       </c>
       <c r="D7" t="n">
-        <v>98.60921319695723</v>
+        <v>98.47763004033233</v>
       </c>
       <c r="E7" t="n">
         <v>26</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>70.77525156396474</v>
       </c>
       <c r="D8" t="n">
-        <v>108.7649614526714</v>
+        <v>110.6710842974447</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="n">
         <v>86.79692082065023</v>
       </c>
       <c r="D9" t="n">
-        <v>125.6618598233332</v>
+        <v>123.6336281542158</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>90.66434523263895</v>
       </c>
       <c r="D10" t="n">
-        <v>128.1483437895802</v>
+        <v>125.9580619225025</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>85.08077618487947</v>
       </c>
       <c r="D11" t="n">
-        <v>123.7123718716326</v>
+        <v>122.7098568836461</v>
       </c>
       <c r="E11" t="n">
         <v>25</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>85.10079131680243</v>
       </c>
       <c r="D12" t="n">
-        <v>124.4860398580663</v>
+        <v>125.0115465130585</v>
       </c>
       <c r="E12" t="n">
         <v>26</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>94.88861557699897</v>
       </c>
       <c r="D13" t="n">
-        <v>133.8375256174232</v>
+        <v>137.1919895272202</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="n">
         <v>101.8715720947272</v>
       </c>
       <c r="D14" t="n">
-        <v>139.6302965259501</v>
+        <v>138.1210497716371</v>
       </c>
       <c r="E14" t="n">
         <v>27</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>95.01645655927013</v>
       </c>
       <c r="D15" t="n">
-        <v>133.435671965042</v>
+        <v>133.7248933569042</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>80.93907902591012</v>
       </c>
       <c r="D16" t="n">
-        <v>119.2586436579762</v>
+        <v>117.9663603856014</v>
       </c>
       <c r="E16" t="n">
         <v>27</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>75.32518175349705</v>
       </c>
       <c r="D17" t="n">
-        <v>113.8315536352533</v>
+        <v>114.3500951062076</v>
       </c>
       <c r="E17" t="n">
         <v>25</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>81.54699435119038</v>
       </c>
       <c r="D18" t="n">
-        <v>120.740484632224</v>
+        <v>119.0594029556785</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>86.13899455365288</v>
       </c>
       <c r="D19" t="n">
-        <v>125.4851890564765</v>
+        <v>125.8360000346357</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="n">
         <v>77.66011821912693</v>
       </c>
       <c r="D20" t="n">
-        <v>118.842803030355</v>
+        <v>115.5129986423013</v>
       </c>
       <c r="E20" t="n">
         <v>28</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>62.99579342838661</v>
       </c>
       <c r="D21" t="n">
-        <v>101.3742139268932</v>
+        <v>103.5056230906719</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1431</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>692</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>385</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59</t>
         </is>
       </c>
     </row>
